--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karcz\Desktop\Project_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karcz\Desktop\Ranking giełdowy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AA9E90-C44A-4666-BB67-82793E23EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54EEF0E-B9EA-43ED-BB85-1ECBD54B487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -214,19 +214,181 @@
   </si>
   <si>
     <t>Eternal</t>
+  </si>
+  <si>
+    <t>Żabka</t>
+  </si>
+  <si>
+    <t>KGHM</t>
+  </si>
+  <si>
+    <t>DOM Development</t>
+  </si>
+  <si>
+    <t>JSW</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Allegro</t>
+  </si>
+  <si>
+    <t>McDonald</t>
+  </si>
+  <si>
+    <t>Prologis</t>
+  </si>
+  <si>
+    <t>Philip Morris</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>BHP Group</t>
+  </si>
+  <si>
+    <t>Vonovia</t>
+  </si>
+  <si>
+    <t>Inpost</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>Jeronimo Martins</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>Nikiel</t>
+  </si>
+  <si>
+    <t>Ropa</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>Bartek</t>
+  </si>
+  <si>
+    <t>Tomek</t>
+  </si>
+  <si>
+    <t>Piotr D</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Jacek</t>
+  </si>
+  <si>
+    <t>Kasia</t>
+  </si>
+  <si>
+    <t>ZAB.WA</t>
+  </si>
+  <si>
+    <t>KGH.WA</t>
+  </si>
+  <si>
+    <t>JSW.WA</t>
+  </si>
+  <si>
+    <t>DOM.WA</t>
+  </si>
+  <si>
+    <t>ALE.WA</t>
+  </si>
+  <si>
+    <t>INPST.AS</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>JMT.LS</t>
+  </si>
+  <si>
+    <t>ASML.AS</t>
+  </si>
+  <si>
+    <t>XRP-USD</t>
+  </si>
+  <si>
+    <t>CL=F</t>
+  </si>
+  <si>
+    <t>VNA.DE</t>
+  </si>
+  <si>
+    <t>BMW.DE</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>ABE.WA</t>
+  </si>
+  <si>
+    <t>BHP.AX</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>NICK.L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,13 +411,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -266,6 +498,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360B67F-25DC-4445-A158-0924B7D7BC76}" name="Tabela1" displayName="Tabela1" ref="A1:B47" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:B47" xr:uid="{E360B67F-25DC-4445-A158-0924B7D7BC76}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E2CC8F33-7F68-4292-8852-83BF228ED772}" name="ticker" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C0F8216B-8C77-45FE-8E50-36B855FF3402}" name="t_name" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,10 +799,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,6 +955,146 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -722,15 +1105,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -942,8 +1325,182 @@
         <v>55</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karcz\Desktop\Ranking giełdowy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54EEF0E-B9EA-43ED-BB85-1ECBD54B487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA63E49-C62F-4240-A77D-15C0F1CA0D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stocks" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
   <si>
     <t>name</t>
   </si>
@@ -361,6 +361,21 @@
   </si>
   <si>
     <t>NICK.L</t>
+  </si>
+  <si>
+    <t>french75</t>
+  </si>
+  <si>
+    <t>Lockheed Martin</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>DSY.PA</t>
+  </si>
+  <si>
+    <t>Dassault</t>
   </si>
 </sst>
 </file>
@@ -501,8 +516,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360B67F-25DC-4445-A158-0924B7D7BC76}" name="Tabela1" displayName="Tabela1" ref="A1:B47" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:B47" xr:uid="{E360B67F-25DC-4445-A158-0924B7D7BC76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E360B67F-25DC-4445-A158-0924B7D7BC76}" name="Tabela1" displayName="Tabela1" ref="A1:B49" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:B49" xr:uid="{E360B67F-25DC-4445-A158-0924B7D7BC76}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E2CC8F33-7F68-4292-8852-83BF228ED772}" name="ticker" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{C0F8216B-8C77-45FE-8E50-36B855FF3402}" name="t_name" dataDxfId="1"/>
@@ -799,10 +814,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,6 +1110,26 @@
         <v>35</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1105,10 +1140,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,8 +1528,24 @@
         <v>83</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B48 B50:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
